--- a/CSC 120 34/Excel/Chapter 3/e03h1Jobs_AmooMichael.xlsx
+++ b/CSC 120 34/Excel/Chapter 3/e03h1Jobs_AmooMichael.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.amoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3619b2ab0c63f38e/Documents/GitHub/HU-CSC-Work/CSC 120 34/Excel/Chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F1914-DD81-4605-82AF-D67414BB09D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{683F1914-DD81-4605-82AF-D67414BB09D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A28C11-27A4-4805-9744-8DFCF3D8DEA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{574FEE24-B30D-42C5-9F59-EBD2ECAE8F6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{574FEE24-B30D-42C5-9F59-EBD2ECAE8F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar Chart" sheetId="3" r:id="rId1"/>
@@ -376,7 +376,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -397,26 +397,25 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,7 +429,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1335,9 +1334,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Outlook!$A$6:$A$12</c:f>
+              <c:f>Outlook!$A$6:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Computer Network Architects</c:v>
                 </c:pt>
@@ -1349,25 +1348,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Computer Systems Analysts</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Database Administrators</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Computer Programmers</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Network/System Admins</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Outlook!$B$6:$B$12</c:f>
+              <c:f>Outlook!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>162700</c:v>
                 </c:pt>
@@ -1379,15 +1369,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>600500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>119500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>294900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>391300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,9 +1405,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Outlook!$A$6:$A$12</c:f>
+              <c:f>Outlook!$A$6:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Computer Network Architects</c:v>
                 </c:pt>
@@ -1438,25 +1419,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Computer Systems Analysts</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Database Administrators</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Computer Programmers</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Network/System Admins</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Outlook!$C$6:$C$12</c:f>
+              <c:f>Outlook!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>173200</c:v>
                 </c:pt>
@@ -1468,15 +1440,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>654900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>133200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>273600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>415300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,9 +1476,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Outlook!$A$6:$A$12</c:f>
+              <c:f>Outlook!$A$6:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Computer Network Architects</c:v>
                 </c:pt>
@@ -1527,25 +1490,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Computer Systems Analysts</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Database Administrators</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Computer Programmers</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Network/System Admins</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Outlook!$D$6:$D$12</c:f>
+              <c:f>Outlook!$D$6:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10500</c:v>
                 </c:pt>
@@ -1557,15 +1511,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-21300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,184 +1518,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CA37-47D9-A27B-2C6B41E014C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Outlook!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Growth</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Outlook!$A$6:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Computer Network Architects</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Software Developers</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Information Security Analysts</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Computer Systems Analysts</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Database Administrators</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Computer Programmers</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Network/System Admins</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Outlook!$E$6:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6.4535955746773205E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24080560420315236</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0591174021648624E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11464435146443515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.2227873855544258E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1334014822386915E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CA37-47D9-A27B-2C6B41E014C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Outlook!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Outlook!$A$6:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Computer Network Architects</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Software Developers</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Information Security Analysts</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Computer Systems Analysts</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Database Administrators</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Computer Programmers</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Network/System Admins</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Outlook!$F$6:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>104650</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103560</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95510</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>88270</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82240</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CA37-47D9-A27B-2C6B41E014C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4649,9 +4416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4689,7 +4456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4795,7 +4562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4937,7 +4704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4951,44 +4718,40 @@
       <selection activeCell="D5" activeCellId="1" sqref="A5:A12 D5:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="24"/>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2016</v>
@@ -5006,7 +4769,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -5028,7 +4791,7 @@
         <v>104650</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +4813,7 @@
         <v>103560</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +4827,7 @@
       <c r="D8" s="7">
         <v>28500</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" si="1"/>
         <v>0.28499999999999998</v>
       </c>
@@ -5072,7 +4835,7 @@
         <v>95510</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5094,7 +4857,7 @@
         <v>88270</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -5116,7 +4879,7 @@
         <v>87020</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -5138,21 +4901,21 @@
         <v>82240</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>391300</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>415300</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>24000</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <f t="shared" si="1"/>
         <v>6.1334014822386915E-2</v>
       </c>
@@ -5160,23 +4923,22 @@
         <v>81100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5198,22 +4960,22 @@
       <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -5221,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5229,7 +4991,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5237,7 +4999,7 @@
         <v>54400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -5245,7 +5007,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -5253,7 +5015,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -5261,7 +5023,7 @@
         <v>13700</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
